--- a/biology/Botanique/Jakob_Georg_Agardh/Jakob_Georg_Agardh.xlsx
+++ b/biology/Botanique/Jakob_Georg_Agardh/Jakob_Georg_Agardh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jakob Georg Agardh est un botaniste suédois, né le 8 décembre 1813 à Lund et mort le 17 janvier 1901 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jakob Georg Agardh est le fils du botaniste Carl Adolph Agardh (1785-1859). Après ses études de sciences naturelles, il devient professeur de botanique à l’université de Lund. Membre de l’Académie royale des sciences de Suède, il étudie principalement les algues et leur systématique, notamment les Cyanophyceae. Il reçoit la médaille linnéenne en 1897.
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Species, Genera et Ordines Algarum (4 vols., Lund, 1848–63)</t>
         </is>
